--- a/dataset/sql_datasets/competition_location.xlsx
+++ b/dataset/sql_datasets/competition_location.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8010838-4C74-4A3F-8C28-64D5BAF8C277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511A5076-1867-44AA-8CCB-7859F5042C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3315" yWindow="-315" windowWidth="19530" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="28995" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,14 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>idSport</t>
-  </si>
-  <si>
-    <t>idLocation</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B357"/>
+  <dimension ref="A1:B356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,16 +363,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -387,15 +380,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -403,7 +396,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -411,7 +404,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -419,7 +412,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -427,15 +420,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -443,7 +436,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -451,7 +444,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -459,7 +452,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -467,7 +460,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -475,7 +468,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -483,7 +476,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -491,7 +484,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -499,7 +492,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -507,7 +500,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -515,7 +508,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -523,7 +516,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -531,7 +524,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -539,15 +532,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>4</v>
@@ -555,15 +548,15 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -571,7 +564,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -579,7 +572,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -587,7 +580,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -595,7 +588,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -603,7 +596,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -611,7 +604,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -619,7 +612,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>5</v>
@@ -627,7 +620,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -635,15 +628,15 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -651,15 +644,15 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -667,7 +660,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -675,7 +668,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -683,7 +676,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>5</v>
@@ -691,7 +684,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>5</v>
@@ -699,7 +692,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>5</v>
@@ -707,7 +700,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>5</v>
@@ -715,7 +708,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -723,7 +716,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>5</v>
@@ -731,7 +724,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>5</v>
@@ -739,7 +732,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>5</v>
@@ -747,7 +740,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>5</v>
@@ -755,23 +748,23 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>5</v>
@@ -779,7 +772,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>5</v>
@@ -787,7 +780,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>5</v>
@@ -795,7 +788,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>5</v>
@@ -803,7 +796,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -811,7 +804,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>5</v>
@@ -819,7 +812,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>5</v>
@@ -827,7 +820,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>5</v>
@@ -835,7 +828,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -843,7 +836,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>5</v>
@@ -851,7 +844,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -859,7 +852,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -867,7 +860,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -875,15 +868,15 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>6</v>
@@ -891,15 +884,15 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -907,7 +900,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -915,7 +908,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -923,7 +916,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -931,7 +924,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -939,15 +932,15 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>7</v>
@@ -955,7 +948,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>7</v>
@@ -963,7 +956,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>7</v>
@@ -971,7 +964,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>7</v>
@@ -979,15 +972,15 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>8</v>
@@ -995,15 +988,15 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>9</v>
@@ -1011,15 +1004,15 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>10</v>
@@ -1027,15 +1020,15 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>11</v>
@@ -1043,15 +1036,15 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>12</v>
@@ -1059,7 +1052,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>12</v>
@@ -1067,7 +1060,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>12</v>
@@ -1075,7 +1068,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>12</v>
@@ -1083,7 +1076,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>12</v>
@@ -1091,7 +1084,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>12</v>
@@ -1099,7 +1092,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>12</v>
@@ -1107,7 +1100,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>12</v>
@@ -1115,7 +1108,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>12</v>
@@ -1123,7 +1116,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>12</v>
@@ -1131,7 +1124,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>12</v>
@@ -1139,15 +1132,15 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>13</v>
@@ -1155,7 +1148,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>13</v>
@@ -1163,7 +1156,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>13</v>
@@ -1171,15 +1164,15 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>14</v>
@@ -1187,7 +1180,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>14</v>
@@ -1195,7 +1188,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>14</v>
@@ -1203,7 +1196,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>14</v>
@@ -1211,7 +1204,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>14</v>
@@ -1219,7 +1212,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>14</v>
@@ -1227,7 +1220,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>14</v>
@@ -1235,7 +1228,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>14</v>
@@ -1243,7 +1236,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>14</v>
@@ -1251,7 +1244,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>14</v>
@@ -1259,7 +1252,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>14</v>
@@ -1267,15 +1260,15 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B113">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>15</v>
@@ -1283,15 +1276,15 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B115">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>16</v>
@@ -1299,15 +1292,15 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>17</v>
@@ -1315,15 +1308,15 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B119">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>18</v>
@@ -1331,7 +1324,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>18</v>
@@ -1339,7 +1332,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>18</v>
@@ -1347,15 +1340,15 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B123">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B124">
         <v>19</v>
@@ -1363,7 +1356,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B125">
         <v>19</v>
@@ -1371,7 +1364,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B126">
         <v>19</v>
@@ -1379,15 +1372,15 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B127">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B128">
         <v>20</v>
@@ -1395,7 +1388,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B129">
         <v>20</v>
@@ -1403,7 +1396,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B130">
         <v>20</v>
@@ -1411,7 +1404,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B131">
         <v>20</v>
@@ -1419,7 +1412,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B132">
         <v>20</v>
@@ -1427,7 +1420,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B133">
         <v>20</v>
@@ -1435,7 +1428,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B134">
         <v>20</v>
@@ -1443,7 +1436,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B135">
         <v>20</v>
@@ -1451,7 +1444,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B136">
         <v>20</v>
@@ -1459,7 +1452,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B137">
         <v>20</v>
@@ -1467,7 +1460,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B138">
         <v>20</v>
@@ -1475,15 +1468,15 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B139">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -1491,7 +1484,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B141">
         <v>4</v>
@@ -1499,7 +1492,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B142">
         <v>4</v>
@@ -1507,7 +1500,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B143">
         <v>4</v>
@@ -1515,7 +1508,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B144">
         <v>4</v>
@@ -1523,7 +1516,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B145">
         <v>4</v>
@@ -1531,7 +1524,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B146">
         <v>4</v>
@@ -1539,15 +1532,15 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B147">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B148">
         <v>21</v>
@@ -1555,15 +1548,15 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B149">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B150">
         <v>22</v>
@@ -1571,15 +1564,15 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B151">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B152">
         <v>21</v>
@@ -1587,15 +1580,15 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B153">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B154">
         <v>23</v>
@@ -1603,7 +1596,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B155">
         <v>23</v>
@@ -1611,7 +1604,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B156">
         <v>23</v>
@@ -1619,7 +1612,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B157">
         <v>23</v>
@@ -1627,7 +1620,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B158">
         <v>23</v>
@@ -1635,7 +1628,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B159">
         <v>23</v>
@@ -1643,7 +1636,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B160">
         <v>23</v>
@@ -1651,7 +1644,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B161">
         <v>23</v>
@@ -1659,7 +1652,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B162">
         <v>23</v>
@@ -1667,7 +1660,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B163">
         <v>23</v>
@@ -1675,7 +1668,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B164">
         <v>23</v>
@@ -1683,15 +1676,15 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B165">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B166">
         <v>24</v>
@@ -1699,15 +1692,15 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B167">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B168">
         <v>25</v>
@@ -1715,15 +1708,15 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B169">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B170">
         <v>26</v>
@@ -1731,15 +1724,15 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B171">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B172">
         <v>27</v>
@@ -1747,15 +1740,15 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B173">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B174">
         <v>28</v>
@@ -1763,15 +1756,15 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B175">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B176">
         <v>29</v>
@@ -1779,15 +1772,15 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B177">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B178">
         <v>30</v>
@@ -1795,15 +1788,15 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B179">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B180">
         <v>31</v>
@@ -1811,15 +1804,15 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B181">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B182">
         <v>32</v>
@@ -1827,15 +1820,15 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B183">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B184">
         <v>33</v>
@@ -1843,15 +1836,15 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B185">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B186">
         <v>34</v>
@@ -1859,7 +1852,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B187">
         <v>34</v>
@@ -1867,7 +1860,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B188">
         <v>34</v>
@@ -1875,7 +1868,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B189">
         <v>34</v>
@@ -1883,7 +1876,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B190">
         <v>34</v>
@@ -1891,7 +1884,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B191">
         <v>34</v>
@@ -1899,7 +1892,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B192">
         <v>34</v>
@@ -1907,7 +1900,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B193">
         <v>34</v>
@@ -1915,7 +1908,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B194">
         <v>34</v>
@@ -1923,7 +1916,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B195">
         <v>34</v>
@@ -1931,7 +1924,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B196">
         <v>34</v>
@@ -1939,7 +1932,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B197">
         <v>34</v>
@@ -1947,7 +1940,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B198">
         <v>34</v>
@@ -1955,7 +1948,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B199">
         <v>34</v>
@@ -1963,7 +1956,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B200">
         <v>34</v>
@@ -1971,7 +1964,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B201">
         <v>34</v>
@@ -1979,7 +1972,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B202">
         <v>34</v>
@@ -1987,7 +1980,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B203">
         <v>34</v>
@@ -1995,7 +1988,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B204">
         <v>34</v>
@@ -2003,7 +1996,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B205">
         <v>34</v>
@@ -2011,7 +2004,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B206">
         <v>34</v>
@@ -2019,7 +2012,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B207">
         <v>34</v>
@@ -2027,15 +2020,15 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B208">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B209">
         <v>35</v>
@@ -2043,15 +2036,15 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B210">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B211">
         <v>36</v>
@@ -2059,15 +2052,15 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B212">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B213">
         <v>25</v>
@@ -2075,15 +2068,15 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B214">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B215">
         <v>3</v>
@@ -2091,7 +2084,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B216">
         <v>3</v>
@@ -2099,15 +2092,15 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B217">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B218">
         <v>37</v>
@@ -2115,7 +2108,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B219">
         <v>37</v>
@@ -2123,7 +2116,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B220">
         <v>37</v>
@@ -2131,7 +2124,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B221">
         <v>37</v>
@@ -2139,7 +2132,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B222">
         <v>37</v>
@@ -2147,7 +2140,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B223">
         <v>37</v>
@@ -2155,7 +2148,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B224">
         <v>37</v>
@@ -2163,7 +2156,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B225">
         <v>37</v>
@@ -2171,7 +2164,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B226">
         <v>37</v>
@@ -2179,7 +2172,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B227">
         <v>37</v>
@@ -2187,7 +2180,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B228">
         <v>37</v>
@@ -2195,7 +2188,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B229">
         <v>37</v>
@@ -2203,7 +2196,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B230">
         <v>37</v>
@@ -2211,15 +2204,15 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B231">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B232">
         <v>38</v>
@@ -2227,15 +2220,15 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B233">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B234">
         <v>39</v>
@@ -2243,7 +2236,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B235">
         <v>39</v>
@@ -2251,7 +2244,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B236">
         <v>39</v>
@@ -2259,7 +2252,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B237">
         <v>39</v>
@@ -2267,7 +2260,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B238">
         <v>39</v>
@@ -2275,7 +2268,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B239">
         <v>39</v>
@@ -2283,7 +2276,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B240">
         <v>39</v>
@@ -2291,7 +2284,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B241">
         <v>39</v>
@@ -2299,7 +2292,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B242">
         <v>39</v>
@@ -2307,15 +2300,15 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B243">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B244">
         <v>40</v>
@@ -2323,7 +2316,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B245">
         <v>40</v>
@@ -2331,7 +2324,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B246">
         <v>40</v>
@@ -2339,7 +2332,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B247">
         <v>40</v>
@@ -2347,7 +2340,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B248">
         <v>40</v>
@@ -2355,7 +2348,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B249">
         <v>40</v>
@@ -2363,7 +2356,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B250">
         <v>40</v>
@@ -2371,7 +2364,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B251">
         <v>40</v>
@@ -2379,7 +2372,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B252">
         <v>40</v>
@@ -2387,7 +2380,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B253">
         <v>40</v>
@@ -2395,7 +2388,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B254">
         <v>40</v>
@@ -2403,7 +2396,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B255">
         <v>40</v>
@@ -2411,7 +2404,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B256">
         <v>40</v>
@@ -2419,7 +2412,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B257">
         <v>40</v>
@@ -2427,15 +2420,15 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B258">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B259">
         <v>41</v>
@@ -2443,7 +2436,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B260">
         <v>41</v>
@@ -2451,7 +2444,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B261">
         <v>41</v>
@@ -2459,15 +2452,15 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B262">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B263">
         <v>42</v>
@@ -2475,23 +2468,23 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B264">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B265">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B266">
         <v>4</v>
@@ -2499,7 +2492,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B267">
         <v>4</v>
@@ -2507,7 +2500,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B268">
         <v>4</v>
@@ -2515,7 +2508,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B269">
         <v>4</v>
@@ -2523,7 +2516,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B270">
         <v>4</v>
@@ -2531,7 +2524,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B271">
         <v>4</v>
@@ -2539,7 +2532,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B272">
         <v>4</v>
@@ -2547,7 +2540,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B273">
         <v>4</v>
@@ -2555,7 +2548,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B274">
         <v>4</v>
@@ -2563,7 +2556,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B275">
         <v>4</v>
@@ -2571,7 +2564,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B276">
         <v>4</v>
@@ -2579,7 +2572,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B277">
         <v>4</v>
@@ -2587,7 +2580,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B278">
         <v>4</v>
@@ -2595,7 +2588,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B279">
         <v>4</v>
@@ -2603,7 +2596,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B280">
         <v>4</v>
@@ -2611,7 +2604,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B281">
         <v>4</v>
@@ -2619,7 +2612,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B282">
         <v>4</v>
@@ -2627,7 +2620,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B283">
         <v>4</v>
@@ -2635,7 +2628,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B284">
         <v>4</v>
@@ -2643,7 +2636,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B285">
         <v>4</v>
@@ -2651,7 +2644,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B286">
         <v>4</v>
@@ -2659,7 +2652,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B287">
         <v>4</v>
@@ -2667,7 +2660,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B288">
         <v>4</v>
@@ -2675,7 +2668,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B289">
         <v>4</v>
@@ -2683,7 +2676,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B290">
         <v>4</v>
@@ -2691,7 +2684,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B291">
         <v>4</v>
@@ -2699,7 +2692,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B292">
         <v>4</v>
@@ -2707,7 +2700,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B293">
         <v>4</v>
@@ -2715,7 +2708,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B294">
         <v>4</v>
@@ -2723,7 +2716,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B295">
         <v>4</v>
@@ -2731,7 +2724,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B296">
         <v>4</v>
@@ -2739,7 +2732,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B297">
         <v>4</v>
@@ -2747,7 +2740,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B298">
         <v>4</v>
@@ -2755,15 +2748,15 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B299">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B300">
         <v>44</v>
@@ -2771,7 +2764,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B301">
         <v>44</v>
@@ -2779,7 +2772,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B302">
         <v>44</v>
@@ -2787,7 +2780,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B303">
         <v>44</v>
@@ -2795,15 +2788,15 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B304">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B305">
         <v>45</v>
@@ -2811,7 +2804,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B306">
         <v>45</v>
@@ -2819,7 +2812,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B307">
         <v>45</v>
@@ -2827,7 +2820,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B308">
         <v>45</v>
@@ -2835,7 +2828,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B309">
         <v>45</v>
@@ -2843,7 +2836,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B310">
         <v>45</v>
@@ -2851,7 +2844,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B311">
         <v>45</v>
@@ -2859,15 +2852,15 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B312">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B313">
         <v>46</v>
@@ -2875,7 +2868,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B314">
         <v>46</v>
@@ -2883,7 +2876,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B315">
         <v>46</v>
@@ -2891,7 +2884,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B316">
         <v>46</v>
@@ -2899,15 +2892,15 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B317">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B318">
         <v>3</v>
@@ -2915,15 +2908,15 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B319">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B320">
         <v>35</v>
@@ -2931,7 +2924,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B321">
         <v>35</v>
@@ -2939,15 +2932,15 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B322">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B323">
         <v>47</v>
@@ -2955,15 +2948,15 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B324">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B325">
         <v>48</v>
@@ -2971,15 +2964,15 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B326">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B327">
         <v>49</v>
@@ -2987,7 +2980,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B328">
         <v>49</v>
@@ -2995,7 +2988,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B329">
         <v>49</v>
@@ -3003,7 +2996,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B330">
         <v>49</v>
@@ -3011,7 +3004,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B331">
         <v>49</v>
@@ -3019,7 +3012,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B332">
         <v>49</v>
@@ -3027,7 +3020,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B333">
         <v>49</v>
@@ -3035,7 +3028,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B334">
         <v>49</v>
@@ -3043,7 +3036,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B335">
         <v>49</v>
@@ -3051,7 +3044,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B336">
         <v>49</v>
@@ -3059,7 +3052,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B337">
         <v>49</v>
@@ -3067,7 +3060,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B338">
         <v>49</v>
@@ -3075,15 +3068,15 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B339">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B340">
         <v>45</v>
@@ -3091,7 +3084,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B341">
         <v>45</v>
@@ -3099,7 +3092,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B342">
         <v>45</v>
@@ -3107,7 +3100,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B343">
         <v>45</v>
@@ -3115,7 +3108,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B344">
         <v>45</v>
@@ -3123,7 +3116,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B345">
         <v>45</v>
@@ -3131,7 +3124,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B346">
         <v>45</v>
@@ -3139,7 +3132,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B347">
         <v>45</v>
@@ -3147,7 +3140,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B348">
         <v>45</v>
@@ -3155,7 +3148,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B349">
         <v>45</v>
@@ -3163,7 +3156,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B350">
         <v>45</v>
@@ -3171,7 +3164,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B351">
         <v>45</v>
@@ -3179,7 +3172,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B352">
         <v>45</v>
@@ -3187,7 +3180,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B353">
         <v>45</v>
@@ -3195,7 +3188,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B354">
         <v>45</v>
@@ -3203,7 +3196,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B355">
         <v>45</v>
@@ -3211,17 +3204,9 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B356">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357">
-        <v>336</v>
-      </c>
-      <c r="B357">
         <v>45</v>
       </c>
     </row>
